--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_6_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_6_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9030.59199806469</v>
+        <v>1797087.807614871</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9030.59199806469</v>
+        <v>1797087.807614871</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16554.83669788665</v>
+        <v>993290.2018731994</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16554.83669788665</v>
+        <v>993290.2018731994</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112062022.434247</v>
+        <v>44638837.76013852</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9844.714068106319</v>
+        <v>999571.2855273904</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19177.8275774616</v>
+        <v>1912619.639768521</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28510.94108681686</v>
+        <v>2825667.994009653</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38856.46361589809</v>
+        <v>3683859.150374458</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49201.98614497928</v>
+        <v>4542050.306739263</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58642.32168179482</v>
+        <v>5455098.660980392</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68534.1868185136</v>
+        <v>6383550.625001076</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78348.64688096326</v>
+        <v>7296598.979242204</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89068.29393567861</v>
+        <v>8154790.135607003</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99327.53173845248</v>
+        <v>9033733.048159139</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109141.9918009021</v>
+        <v>9946781.40240027</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>118956.4518633512</v>
+        <v>10859829.75664141</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>128770.9119258008</v>
+        <v>11772878.11088254</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139038.8861121917</v>
+        <v>12651406.53977475</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149307.0035670038</v>
+        <v>13494194.08636001</v>
       </c>
     </row>
   </sheetData>
